--- a/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB651C6-6D4D-47E4-9F7E-5A319F1F73AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DF878B-02A5-48BE-A5A0-F0768AA1A785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>Ones, SchoolRegion_1, SchoolRegion_2, PostulationType_1</t>
+    <t>SchoolRegion_1, SchoolRegion_2, PostulationType_1</t>
   </si>
   <si>
     <t>y</t>
@@ -444,7 +444,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DF878B-02A5-48BE-A5A0-F0768AA1A785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCC620C-B5FC-427E-9FA9-05064CD1F9F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCC620C-B5FC-427E-9FA9-05064CD1F9F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8997BB-469F-4183-B1A5-741A134A1B60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>SchoolRegion_1, SchoolRegion_2, PostulationType_1</t>
+    <t>SchoolRegion_2, SchoolType_2, MotherEd_4, MotherEd_7, PostulationType_1</t>
   </si>
   <si>
     <t>y</t>
@@ -444,7 +444,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8997BB-469F-4183-B1A5-741A134A1B60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832B15C3-8A4B-4F09-97A5-88E1B220A9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832B15C3-8A4B-4F09-97A5-88E1B220A9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E9C320-47C0-4428-AAB0-BA9A671333BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E9C320-47C0-4428-AAB0-BA9A671333BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A8102C-60E2-49DC-B2CD-1F81C2588BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A8102C-60E2-49DC-B2CD-1F81C2588BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF52856-BE9E-4091-A9A9-05C6CB74F00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF52856-BE9E-4091-A9A9-05C6CB74F00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F388BCAB-A947-4210-B710-8433E513D963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/evaluateRegModel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F388BCAB-A947-4210-B710-8433E513D963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9103A3A4-639D-4FE6-B705-6990C7570995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
